--- a/backend/app/data/David.xlsx
+++ b/backend/app/data/David.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alyssa/Documents/GitHub/playing-cards/backend/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BE5FE4-8A82-9C49-9840-E4B8C83C6ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59D013F-C477-9142-A23B-31CE26425D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20700" windowHeight="16260" xr2:uid="{C7F35C09-7B75-CE4C-8BCB-5A2637948E7B}"/>
   </bookViews>
@@ -180,10 +180,10 @@
     <t>http://catalogue.bnf.fr/ark:/12148/cb40918650c</t>
   </si>
   <si>
+    <t>Start Date</t>
+  </si>
+  <si>
     <t>End Date</t>
-  </si>
-  <si>
-    <t>Start Date</t>
   </si>
 </sst>
 </file>
@@ -559,13 +559,14 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
@@ -588,10 +589,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
